--- a/resources/experiment 1/metrics/R2/incidence/Ictus (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Ictus (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8121189970297843</v>
+        <v>0.7560608764112949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8121631136885635</v>
+        <v>0.7343812131865159</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8121631136885635</v>
+        <v>0.652928209961623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8783575291717578</v>
+        <v>0.6515296752250829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8783575291717578</v>
+        <v>0.5827910642453481</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8783575291717578</v>
+        <v>0.606979269069012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6721366652385742</v>
+        <v>0.6652068857830608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6724530653198073</v>
+        <v>0.6139830513575016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6724530653198073</v>
+        <v>0.271555918505012</v>
       </c>
     </row>
   </sheetData>
